--- a/University Data 2 from DLSU (1).xlsx
+++ b/University Data 2 from DLSU (1).xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Final Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="152">
   <si>
     <t>DLSU</t>
   </si>
@@ -470,13 +465,22 @@
     <t>abigail</t>
   </si>
   <si>
-    <t> </t>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>university</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -817,7 +821,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -827,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,27 +845,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2">
-        <v>32901</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>32960</v>
+        <v>32901</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -869,13 +873,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
-        <v>33662</v>
+        <v>32960</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -883,13 +887,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>33002</v>
+        <v>33662</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -897,13 +901,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>33090</v>
+        <v>33002</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>0</v>
@@ -911,13 +915,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>33092</v>
+        <v>33090</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
@@ -925,13 +929,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>33670</v>
+        <v>33092</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -939,13 +943,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>33679</v>
+        <v>33670</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>0</v>
@@ -953,27 +957,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>33177</v>
+        <v>33679</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
-        <v>33144</v>
+        <v>33177</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -981,38 +985,38 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>33722</v>
+        <v>33144</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>33845</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
+        <v>33722</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
-        <v>33146</v>
+        <v>33845</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -1020,13 +1024,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
-        <v>33902</v>
+        <v>33146</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
@@ -1034,13 +1038,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2">
-        <v>33183</v>
+        <v>33902</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -1048,13 +1052,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
-        <v>33914</v>
+        <v>33183</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -1062,13 +1066,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2">
-        <v>33285</v>
+        <v>33914</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -1076,13 +1080,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2">
-        <v>33413</v>
+        <v>33285</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
@@ -1090,13 +1094,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2">
-        <v>33995</v>
+        <v>33413</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -1104,27 +1108,27 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2">
-        <v>33440</v>
+        <v>33995</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2">
-        <v>34017</v>
+        <v>33440</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>0</v>
@@ -1132,13 +1136,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2">
-        <v>33548</v>
+        <v>34017</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>0</v>
@@ -1146,13 +1150,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2">
-        <v>33589</v>
+        <v>33548</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>0</v>
@@ -1160,13 +1164,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2">
-        <v>33591</v>
+        <v>33589</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>0</v>
@@ -1174,49 +1178,49 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2">
-        <v>34079</v>
+        <v>33591</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2">
-        <v>33693</v>
+        <v>34079</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2">
-        <v>33706</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
+        <v>33693</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2">
-        <v>34133</v>
+        <v>33706</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>0</v>
@@ -1224,13 +1228,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2">
-        <v>33710</v>
+        <v>34133</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>0</v>
@@ -1238,13 +1242,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2">
-        <v>33765</v>
+        <v>33710</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>0</v>
@@ -1252,13 +1256,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2">
-        <v>34153</v>
+        <v>33765</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>0</v>
@@ -1266,13 +1270,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2">
-        <v>34319</v>
+        <v>34153</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>0</v>
@@ -1280,13 +1284,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2">
-        <v>33795</v>
+        <v>34319</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>0</v>
@@ -1294,13 +1298,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2">
-        <v>34450</v>
+        <v>33795</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>0</v>
@@ -1308,13 +1312,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2">
-        <v>34654</v>
+        <v>34450</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>0</v>
@@ -1322,27 +1326,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2">
-        <v>34226</v>
+        <v>34654</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2">
-        <v>32985</v>
+        <v>34226</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>1</v>
@@ -1350,13 +1354,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2">
-        <v>33006</v>
+        <v>32985</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>1</v>
@@ -1364,13 +1368,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2">
-        <v>34295</v>
+        <v>33006</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1</v>
@@ -1378,27 +1382,27 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2">
-        <v>34299</v>
+        <v>34295</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2">
-        <v>33082</v>
+        <v>34299</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>0</v>
@@ -1406,105 +1410,105 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="2">
+        <v>33082</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="2">
         <v>34447</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C44" s="2">
         <v>33871</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="2">
-        <v>34691</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2">
-        <v>33139</v>
+        <v>34691</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2">
-        <v>33269</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>0</v>
+        <v>33139</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2">
-        <v>33031</v>
+        <v>33269</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2">
-        <v>33153</v>
+        <v>33031</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2">
-        <v>33218</v>
+        <v>33153</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>4</v>
@@ -1512,27 +1516,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2">
-        <v>33186</v>
+        <v>33218</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2">
-        <v>33314</v>
+        <v>33186</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>0</v>
@@ -1540,13 +1544,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2">
-        <v>33327</v>
+        <v>33314</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>0</v>
@@ -1554,13 +1558,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2">
-        <v>33374</v>
+        <v>33327</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>0</v>
@@ -1568,13 +1572,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C54" s="2">
-        <v>33448</v>
+        <v>33374</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>0</v>
@@ -1582,13 +1586,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C55" s="2">
-        <v>33475</v>
+        <v>33448</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>0</v>
@@ -1596,38 +1600,38 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C56" s="2">
-        <v>33369</v>
+        <v>33475</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2">
-        <v>33518</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
+        <v>33369</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C58" s="2">
-        <v>33550</v>
+        <v>33518</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>0</v>
@@ -1635,13 +1639,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C59" s="2">
-        <v>33989</v>
+        <v>33550</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>0</v>
@@ -1649,13 +1653,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C60" s="2">
-        <v>32885</v>
+        <v>33989</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>0</v>
@@ -1663,13 +1667,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C61" s="2">
-        <v>32907</v>
+        <v>32885</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>0</v>
@@ -1677,13 +1681,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C62" s="2">
-        <v>32963</v>
+        <v>32907</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>0</v>
@@ -1691,13 +1695,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C63" s="2">
-        <v>32980</v>
+        <v>32963</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>0</v>
@@ -1705,13 +1709,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C64" s="2">
-        <v>32985</v>
+        <v>32980</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>0</v>
@@ -1722,10 +1726,10 @@
         <v>130</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" s="2">
-        <v>33006</v>
+        <v>32985</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>0</v>
@@ -1736,13 +1740,13 @@
         <v>130</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" s="2">
-        <v>34164</v>
+        <v>33006</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1750,10 +1754,10 @@
         <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C67" s="2">
-        <v>34209</v>
+        <v>34164</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>2</v>
@@ -1764,10 +1768,10 @@
         <v>130</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="2">
-        <v>34365</v>
+        <v>34209</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>2</v>
@@ -1775,13 +1779,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C69" s="2">
-        <v>33531</v>
+        <v>34365</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>2</v>
@@ -1789,13 +1793,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C70" s="2">
-        <v>34412</v>
+        <v>33531</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>2</v>
@@ -1803,38 +1807,38 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C71" s="2">
-        <v>34502</v>
+        <v>34412</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C72" s="2">
-        <v>33562</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>0</v>
+        <v>34502</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C73" s="2">
-        <v>33626</v>
+        <v>33562</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>0</v>
@@ -1842,13 +1846,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C74" s="2">
-        <v>34505</v>
+        <v>33626</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>0</v>
@@ -1856,9 +1860,17 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="2">
+        <v>34505</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
